--- a/送付リスト.xlsx
+++ b/送付リスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\python\automail_py\送付用作成\src_kyuka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomok\デスクトップ\automail_py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551C7E4A-DDBB-47A0-A111-94767CCDF62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AB9D0F-25BE-4612-84E5-3FF69D35FD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="450" windowWidth="15060" windowHeight="11260" xr2:uid="{2CFC1CAC-7A9C-4959-831F-E876180352C7}"/>
+    <workbookView xWindow="11150" yWindow="3170" windowWidth="26470" windowHeight="11260" xr2:uid="{2CFC1CAC-7A9C-4959-831F-E876180352C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>部署</t>
     <rPh sb="0" eb="2">
@@ -49,10 +49,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>tomokyuuu999@gmail.com</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -71,23 +67,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>久加朋子</t>
-    <rPh sb="0" eb="2">
-      <t>ヒサクワ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>トモコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>久加</t>
-    <rPh sb="0" eb="2">
-      <t>ヒサクワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>この連番がPDFと揃っている必要がある</t>
     <rPh sb="2" eb="4">
       <t>レンバン</t>
@@ -112,28 +91,109 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1久加</t>
+    <t>AA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●●大学</t>
+    <rPh sb="2" eb="4">
+      <t>ダイガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>富山県立大学</t>
+    <rPh sb="0" eb="2">
+      <t>トヤマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンリツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ダイガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>流域河川工学研究室</t>
+    <rPh sb="0" eb="2">
+      <t>リュウイキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウガク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ケンキュウシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇〇@pu-toyama.ac.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇〇@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑必須</t>
     <rPh sb="1" eb="3">
-      <t>ヒサクワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3久加朋子</t>
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>001AA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>003CC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>005DD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>002BB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑参考情報（入力しなくても）</t>
     <rPh sb="1" eb="3">
-      <t>ヒサクワ</t>
+      <t>サンコウ</t>
     </rPh>
     <rPh sb="3" eb="5">
-      <t>トモコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5竹澤</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7竹澤</t>
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拡張子より上だけ記載する</t>
+    <rPh sb="0" eb="3">
+      <t>カクチョウシ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キサイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -167,7 +227,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,6 +243,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -204,7 +270,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -218,6 +284,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -535,32 +604,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F390727F-1C39-45B5-9276-297445989320}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="35.9140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -568,96 +638,101 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{FF051DE5-D813-41C9-AA6A-1229ED22A7B4}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{0F679CCE-1033-47D0-B87A-0832151B61C9}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{CF7C4F51-7D12-4294-84B9-340372C476A7}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{0A909211-142A-4922-B712-74C04CC24D0E}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{1B28773D-617F-4E43-AD39-A5DF25EFA562}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{B1CD7DAA-5043-4544-A5B4-B090A60C2F42}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{C44F633A-9B93-4F81-A5BC-BA7E8F3C7464}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{08E4A1E3-9233-4FB7-A45C-888FEB7EAE03}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
